--- a/envo/document/data/list/6.xlsx
+++ b/envo/document/data/list/6.xlsx
@@ -16,162 +16,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>Đường xe vào - Driveway</t>
-  </si>
-  <si>
-    <t>Nhà để xe - Garage</t>
-  </si>
-  <si>
-    <t>Ăng ten - Antenna</t>
-  </si>
-  <si>
-    <t>Mái nhà - Roof</t>
-  </si>
-  <si>
-    <t>Cổng - Gate</t>
-  </si>
-  <si>
-    <t>Hành lang - Lobby</t>
-  </si>
-  <si>
-    <t>Cửa sổ - Window</t>
-  </si>
-  <si>
-    <t>Ống khói - Chimney</t>
-  </si>
-  <si>
-    <t>Máng nước - Gutter</t>
-  </si>
-  <si>
-    <t>Cái võng - Hammock</t>
-  </si>
-  <si>
-    <t>Vòi tưới nước - Garden hose</t>
-  </si>
-  <si>
-    <t>Cỏ - Grass</t>
-  </si>
-  <si>
-    <t>Ống thoát nước - Drainpipe</t>
-  </si>
-  <si>
-    <t>Sân vườn - Garden</t>
-  </si>
-  <si>
-    <t>Sân - Yard</t>
-  </si>
-  <si>
-    <t>Cầu thang bộ - Stair</t>
-  </si>
-  <si>
-    <t>Lên lầu - Up stair</t>
-  </si>
-  <si>
-    <t>Xuống lầu - Down stair</t>
-  </si>
-  <si>
-    <t>Thang máy - Elevator</t>
-  </si>
-  <si>
-    <t>Bậc thang - Step</t>
-  </si>
-  <si>
-    <t>Chuông cửa - Doorbell</t>
-  </si>
-  <si>
-    <t>Phòng tắm - Bathroom</t>
-  </si>
-  <si>
-    <t>Phòng ngủ - Bedroom</t>
-  </si>
-  <si>
-    <t>Phòng khách - Livingroom</t>
-  </si>
-  <si>
-    <t>Ban công - Balcony</t>
-  </si>
-  <si>
-    <t>Phòng ăn - Dinning room</t>
-  </si>
-  <si>
-    <t>Nhà bếp - Kitchen</t>
-  </si>
-  <si>
-    <t>Nhà vệ sinh - WC/Toilet/Restroom</t>
-  </si>
-  <si>
-    <t>Hàng rào - Fence</t>
-  </si>
-  <si>
-    <t>Cửa chính - Door</t>
-  </si>
-  <si>
-    <t>Gác áp mái - Attic</t>
-  </si>
-  <si>
-    <t>Gác lửng - Mezzanine</t>
-  </si>
-  <si>
-    <t>Tầng hầm - Basement</t>
-  </si>
-  <si>
-    <t>Tầng trệt - Ground floor</t>
-  </si>
-  <si>
-    <t>Tầng một - First floor</t>
-  </si>
-  <si>
-    <t>Tầng hai - Second floor</t>
-  </si>
-  <si>
-    <t>Thùng rác - Dustbin</t>
-  </si>
-  <si>
-    <t>Hòm thư - Letterbox</t>
-  </si>
-  <si>
-    <t>Hồ bơi - Swimming pool</t>
-  </si>
-  <si>
-    <t>Xích đu - Swing</t>
-  </si>
-  <si>
-    <t>Sân thượng - Rooftop</t>
-  </si>
-  <si>
-    <t>Bình chữa cháy - Fire extinguisher</t>
-  </si>
-  <si>
-    <t>Nhà bên cạnh - Next door</t>
-  </si>
-  <si>
-    <t>Hàng xóm - Neighbor</t>
-  </si>
-  <si>
-    <t>Phòng làm việc - Office</t>
-  </si>
-  <si>
-    <t>Phòng xem phim - Theater</t>
-  </si>
-  <si>
-    <t>Cửa sau - Back door</t>
-  </si>
-  <si>
-    <t>Lầu dưới - Downstairs</t>
-  </si>
-  <si>
-    <t>Trên lầu - Upstairs</t>
-  </si>
-  <si>
-    <t>Nền nhà - Floor</t>
-  </si>
-  <si>
-    <t>Trần nhà - Ceiling</t>
-  </si>
-  <si>
-    <t>Tường - Wall</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Giường - Bed</t>
+  </si>
+  <si>
+    <t>Khăn trải giường - Sheet</t>
+  </si>
+  <si>
+    <t>Gối - Pillow</t>
+  </si>
+  <si>
+    <t>Bàn nhỏ đầu giường - Bedside table</t>
+  </si>
+  <si>
+    <t>Đèn bàn - Table lamp</t>
+  </si>
+  <si>
+    <t>Bức tranh - Picture</t>
+  </si>
+  <si>
+    <t>Tủ quần áo - Wardrobe</t>
+  </si>
+  <si>
+    <t>Gương - Mirror</t>
+  </si>
+  <si>
+    <t>Bàn trang điểm - Dressing table</t>
+  </si>
+  <si>
+    <t>Tủ ngăn kéo - Chest of drawers</t>
+  </si>
+  <si>
+    <t>Thảm trải sàn - Rug</t>
+  </si>
+  <si>
+    <t>Móc treo đồ - Hanger</t>
+  </si>
+  <si>
+    <t>Hộp đựng trang sức - Jewelry box</t>
+  </si>
+  <si>
+    <t>Lược chải đầu - Comb</t>
+  </si>
+  <si>
+    <t>Bàn chải tóc - Hairbrush</t>
+  </si>
+  <si>
+    <t>Đồng hồ báo thức - Alarm clock</t>
+  </si>
+  <si>
+    <t>Đầu giường - Headboard</t>
+  </si>
+  <si>
+    <t>Vỏ gối - Pillowcase</t>
+  </si>
+  <si>
+    <t>Đệm - Mattress</t>
+  </si>
+  <si>
+    <t>Chăn - Blanket</t>
+  </si>
+  <si>
+    <t>Chân giường - Footboard</t>
+  </si>
+  <si>
+    <t>Công tắc đèn - Light switch</t>
+  </si>
+  <si>
+    <t>Đồng hồ treo tường - Clock</t>
+  </si>
+  <si>
+    <t>Giường đôi - Double bed</t>
+  </si>
+  <si>
+    <t>Giường đơn - Single bed</t>
+  </si>
+  <si>
+    <t>Mành sáo - Blinds</t>
+  </si>
+  <si>
+    <t>Rèm cửa - Curtains</t>
+  </si>
+  <si>
+    <t>Giấy dán tường - Wallpaper</t>
+  </si>
+  <si>
+    <t>Bình hoa - Vase</t>
+  </si>
+  <si>
+    <t>Đèn pin - Torch</t>
+  </si>
+  <si>
+    <t>Nến - Candle</t>
   </si>
 </sst>
 </file>
@@ -503,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,12 +469,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -547,7 +484,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -557,222 +494,117 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/data/list/6.xlsx
+++ b/envo/document/data/list/6.xlsx
@@ -69,9 +69,6 @@
     <t>Đầu giường - Headboard</t>
   </si>
   <si>
-    <t>Vỏ gối - Pillowcase</t>
-  </si>
-  <si>
     <t>Đệm - Mattress</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Nến - Candle</t>
+  </si>
+  <si>
+    <t>Vỏ gối - Pillow case</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -539,12 +539,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -554,57 +554,57 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
